--- a/data/students/data_analysis.xlsx
+++ b/data/students/data_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\TOCHI-2023\data\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD5B502-1845-4855-88A4-45EC6715013F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864C510F-36F4-4D90-9C1C-168C3DF75AAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7913" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7913" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data (Bounding Box)" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="331">
   <si>
     <t xml:space="preserve">What jogging interface did the participant use? </t>
   </si>
@@ -1008,9 +1008,6 @@
     <t>Didn't complete the task. This participant manuvered the gripper to be upside-down and became confused when his rotation values would not reach the goal.</t>
   </si>
   <si>
-    <t>Removed from study. Participant started about 5 min later than other participants.</t>
-  </si>
-  <si>
     <t xml:space="preserve">When proctor checked the participant's values,  
 the proctor noticed that not all numbers were green. The participant said they were, but that they must have moved a little bit by the proctor. </t>
   </si>
@@ -1051,7 +1048,25 @@
     <t>Have you ever worked with robotics before?</t>
   </si>
   <si>
-    <t>Removed from study. This participant accidentally removed his console and had to restart. Upon restart, he achieved this time.</t>
+    <t>Completed (%)</t>
+  </si>
+  <si>
+    <t>Average time (Minutes)</t>
+  </si>
+  <si>
+    <t>Did not complete (%)</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>1 miss</t>
+  </si>
+  <si>
+    <t>Removed from analysis. Participant started about 5 min later than other participants.</t>
+  </si>
+  <si>
+    <t>Removed from analysis. This participant accidentally removed his console and had to restart. Upon restart, he achieved this time.</t>
   </si>
   <si>
     <r>
@@ -1078,17 +1093,8 @@
 One participant (Number 5, in red) was removed from the bounding box counting, and another (Number 2, in red) from the joystick counting due to reasons stated in the comments below.
 One participant from the buttons section responded to the survey but his completion time was not recorded (proctor missed to record his completion time). 
 If time equals N, it means that the participant didn't complete the task in 15 minutes.
-If time equals R, means that for some reason (specified in comments), the participantion wasn't included in our research.</t>
+If time equals R, means that for some reason (specified in comments), the participantion wasn't included in our analysis.</t>
     </r>
-  </si>
-  <si>
-    <t>Completed (%)</t>
-  </si>
-  <si>
-    <t>Average time (Minutes)</t>
-  </si>
-  <si>
-    <t>Did not complete (%)</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1590,6 +1596,18 @@
     <xf numFmtId="45" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="17" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1652,15 +1670,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4773,7 +4782,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9918,6 +9927,222 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1C78D64-F69C-4566-80BA-16EF4898C7EE}" name="PivotTable47" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B86:C90" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Have you ever worked with robotics before?" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21C5AAEA-C538-46A8-8D04-142193DF25BF}" name="PivotTable46" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B81:C84" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Have you had any prior experience with mixed reality? " fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0687F063-C37B-42E2-A6A8-EF59B7A509AC}" name="PivotTable45" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B74:C79" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="What is your current year in college?  " fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="20">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4706BDB-811E-4686-A63D-2771B64D3BC6}" name="PivotTable44" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B67:C72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="What is your major? " fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="21">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90B3C71C-9087-4FA3-806B-D4A6DF2C4653}" name="PivotTable43" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B62:C65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
@@ -9950,14 +10175,14 @@
     <dataField name="Was the participant able to complete the task? " fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="19">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="22">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9973,7 +10198,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{66C1A294-2D06-4B38-AC30-2E86C7F3C310}" name="PivotTable42" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B54:C60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -10018,14 +10243,14 @@
     <dataField name="What jogging interface did the participant use?" fld="1" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="21">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="24">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -10050,222 +10275,6 @@
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1C78D64-F69C-4566-80BA-16EF4898C7EE}" name="PivotTable47" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B86:C90" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Have you ever worked with robotics before?" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="22">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21C5AAEA-C538-46A8-8D04-142193DF25BF}" name="PivotTable46" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B81:C84" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Have you had any prior experience with mixed reality? " fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="23">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0687F063-C37B-42E2-A6A8-EF59B7A509AC}" name="PivotTable45" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B74:C79" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="What is your current year in college?  " fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="24">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4706BDB-811E-4686-A63D-2771B64D3BC6}" name="PivotTable44" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B67:C72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="What is your major? " fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="25">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -11206,8 +11215,8 @@
   </sheetPr>
   <dimension ref="A2:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11226,41 +11235,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="94" t="s">
-        <v>325</v>
-      </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
+      <c r="B2" s="98" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
     </row>
     <row r="4" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="102" t="s">
+      <c r="E4" s="103"/>
+      <c r="F4" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="104" t="s">
+      <c r="G4" s="107"/>
+      <c r="H4" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="100" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="101"/>
+      <c r="K4" s="105"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -11339,7 +11348,7 @@
         <v>2.3148148148148151E-3</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F6" s="66">
         <v>0.3263888888888889</v>
@@ -11350,7 +11359,7 @@
       </c>
       <c r="I6" s="65"/>
       <c r="J6" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K6" s="70"/>
       <c r="L6" s="1"/>
@@ -11378,7 +11387,7 @@
       </c>
       <c r="C7" s="67"/>
       <c r="D7" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E7" s="64" t="s">
         <v>307</v>
@@ -11392,10 +11401,10 @@
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="63" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K7" s="64" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -11422,7 +11431,7 @@
       </c>
       <c r="C8" s="67"/>
       <c r="D8" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E8" s="64" t="s">
         <v>307</v>
@@ -11436,7 +11445,7 @@
       </c>
       <c r="I8" s="68"/>
       <c r="J8" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K8" s="70"/>
       <c r="L8" s="1"/>
@@ -11464,7 +11473,7 @@
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E9" s="64" t="s">
         <v>307</v>
@@ -11478,7 +11487,7 @@
       </c>
       <c r="I9" s="65"/>
       <c r="J9" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K9" s="70"/>
       <c r="L9" s="1"/>
@@ -11502,13 +11511,13 @@
         <v>65</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E10" s="64" t="s">
         <v>307</v>
@@ -11522,7 +11531,7 @@
       </c>
       <c r="I10" s="65"/>
       <c r="J10" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K10" s="70"/>
       <c r="L10" s="1"/>
@@ -11550,7 +11559,7 @@
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E11" s="64" t="s">
         <v>307</v>
@@ -11560,7 +11569,7 @@
       </c>
       <c r="G11" s="65"/>
       <c r="H11" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I11" s="64" t="s">
         <v>308</v>
@@ -11594,7 +11603,7 @@
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E12" s="64" t="s">
         <v>307</v>
@@ -11608,7 +11617,7 @@
       </c>
       <c r="I12" s="65"/>
       <c r="J12" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K12" s="71"/>
       <c r="L12" s="1"/>
@@ -11636,7 +11645,7 @@
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E13" s="64" t="s">
         <v>307</v>
@@ -11648,7 +11657,7 @@
       </c>
       <c r="I13" s="69"/>
       <c r="J13" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K13" s="71"/>
       <c r="L13" s="1"/>
@@ -11676,7 +11685,7 @@
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E14" s="64" t="s">
         <v>307</v>
@@ -11688,7 +11697,7 @@
       </c>
       <c r="I14" s="65"/>
       <c r="J14" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K14" s="71"/>
       <c r="L14" s="1"/>
@@ -11712,13 +11721,13 @@
         <v>70</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C15" s="64" t="s">
         <v>309</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E15" s="64" t="s">
         <v>307</v>
@@ -11754,7 +11763,7 @@
       <c r="B16" s="72"/>
       <c r="C16" s="73"/>
       <c r="D16" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E16" s="64" t="s">
         <v>307</v>
@@ -11785,15 +11794,25 @@
     </row>
     <row r="17" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="16" t="s">
+        <v>326</v>
+      </c>
       <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>326</v>
+      </c>
       <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="16" t="s">
+        <v>326</v>
+      </c>
       <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="H17" s="16" t="s">
+        <v>327</v>
+      </c>
       <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+      <c r="J17" s="16" t="s">
+        <v>326</v>
+      </c>
       <c r="K17" s="16"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -11812,15 +11831,25 @@
     </row>
     <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="14">
+        <v>10</v>
+      </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="14"/>
+      <c r="D18" s="14">
+        <v>11</v>
+      </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="14">
+        <v>7</v>
+      </c>
       <c r="G18" s="15"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="14">
+        <v>12</v>
+      </c>
       <c r="I18" s="15"/>
-      <c r="J18" s="14"/>
+      <c r="J18" s="14">
+        <v>9</v>
+      </c>
       <c r="K18" s="15"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -39354,8 +39383,8 @@
   </sheetPr>
   <dimension ref="B2:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -39369,23 +39398,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="35"/>
-      <c r="I2" s="107" t="s">
+      <c r="I2" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
     </row>
     <row r="3" spans="2:21" ht="18" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B3" s="45" t="s">
@@ -39430,7 +39459,7 @@
       <c r="C4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="108">
+      <c r="D4" s="87">
         <f>3+(28/60)</f>
         <v>3.4666666666666668</v>
       </c>
@@ -39444,7 +39473,7 @@
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="36" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J4" s="37">
         <f>G35</f>
@@ -39479,7 +39508,7 @@
       <c r="C5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="108">
+      <c r="D5" s="87">
         <f>6+(6/60)</f>
         <v>6.1</v>
       </c>
@@ -39493,7 +39522,7 @@
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="36" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J5" s="37">
         <f>G36</f>
@@ -39528,7 +39557,7 @@
       <c r="C6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="108">
+      <c r="D6" s="87">
         <f>3+(23/60)</f>
         <v>3.3833333333333333</v>
       </c>
@@ -39542,7 +39571,7 @@
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="35" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J6" s="35">
         <v>6</v>
@@ -39567,7 +39596,7 @@
       <c r="C7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="108">
+      <c r="D7" s="87">
         <f>4+(3/60)</f>
         <v>4.05</v>
       </c>
@@ -39589,7 +39618,7 @@
       <c r="C8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="108">
+      <c r="D8" s="87">
         <f>3+(19/60)</f>
         <v>3.3166666666666664</v>
       </c>
@@ -39612,7 +39641,7 @@
       <c r="C9" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="108">
+      <c r="D9" s="87">
         <f>3+(45/60)</f>
         <v>3.75</v>
       </c>
@@ -39635,7 +39664,7 @@
       <c r="C10" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="108">
+      <c r="D10" s="87">
         <f>5+(14/60)</f>
         <v>5.2333333333333334</v>
       </c>
@@ -39653,7 +39682,7 @@
       <c r="C11" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="108">
+      <c r="D11" s="87">
         <f>14+(58/60)</f>
         <v>14.966666666666667</v>
       </c>
@@ -39671,7 +39700,7 @@
       <c r="C12" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="108">
+      <c r="D12" s="87">
         <v>15</v>
       </c>
       <c r="E12" s="50"/>
@@ -39684,7 +39713,7 @@
     <row r="13" spans="2:21" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="D13" s="90"/>
       <c r="E13" s="35"/>
       <c r="F13" s="44"/>
       <c r="G13" s="35"/>
@@ -39693,14 +39722,14 @@
       <c r="N13" s="35"/>
     </row>
     <row r="14" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="110" t="s">
         <v>251</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
@@ -39729,7 +39758,7 @@
       <c r="C16" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="109">
+      <c r="D16" s="88">
         <f>3+(20/60)</f>
         <v>3.3333333333333335</v>
       </c>
@@ -39756,7 +39785,7 @@
       <c r="C17" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="108">
+      <c r="D17" s="87">
         <v>15</v>
       </c>
       <c r="E17" s="50"/>
@@ -39782,7 +39811,7 @@
       <c r="C18" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="108">
+      <c r="D18" s="87">
         <v>15</v>
       </c>
       <c r="E18" s="50"/>
@@ -39808,7 +39837,7 @@
       <c r="C19" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="108">
+      <c r="D19" s="87">
         <v>15</v>
       </c>
       <c r="E19" s="50"/>
@@ -39829,7 +39858,7 @@
       <c r="C20" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="108">
+      <c r="D20" s="87">
         <v>15</v>
       </c>
       <c r="E20" s="50"/>
@@ -39855,7 +39884,7 @@
       <c r="C21" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="108">
+      <c r="D21" s="87">
         <v>15</v>
       </c>
       <c r="E21" s="50"/>
@@ -39881,7 +39910,7 @@
       <c r="C22" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="108">
+      <c r="D22" s="87">
         <v>15</v>
       </c>
       <c r="E22" s="50"/>
@@ -39902,7 +39931,7 @@
       <c r="C23" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="108">
+      <c r="D23" s="87">
         <v>15</v>
       </c>
       <c r="E23" s="50"/>
@@ -39923,7 +39952,7 @@
       <c r="C24" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="108">
+      <c r="D24" s="87">
         <v>15</v>
       </c>
       <c r="E24" s="50"/>
@@ -39944,7 +39973,7 @@
       <c r="C25" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="108">
+      <c r="D25" s="87">
         <v>15</v>
       </c>
       <c r="E25" s="50"/>
@@ -39965,7 +39994,7 @@
       <c r="C26" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="108">
+      <c r="D26" s="87">
         <v>15</v>
       </c>
       <c r="E26" s="50"/>
@@ -40010,14 +40039,14 @@
       <c r="N28" s="35"/>
     </row>
     <row r="29" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="106" t="s">
+      <c r="B29" s="110" t="s">
         <v>252</v>
       </c>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
       <c r="J29" s="35"/>
@@ -40054,7 +40083,7 @@
       <c r="C31" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="108">
+      <c r="D31" s="87">
         <f>7+(5/60)</f>
         <v>7.083333333333333</v>
       </c>
@@ -40081,7 +40110,7 @@
       <c r="C32" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="108">
+      <c r="D32" s="87">
         <f>5+(46/60)</f>
         <v>5.7666666666666666</v>
       </c>
@@ -40108,7 +40137,7 @@
       <c r="C33" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="108">
+      <c r="D33" s="87">
         <f>14+(40/60)</f>
         <v>14.666666666666666</v>
       </c>
@@ -40135,7 +40164,7 @@
       <c r="C34" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="108">
+      <c r="D34" s="87">
         <f>3+(54/60)</f>
         <v>3.9</v>
       </c>
@@ -40157,7 +40186,7 @@
       <c r="C35" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="108">
+      <c r="D35" s="87">
         <f>5+(16/60)</f>
         <v>5.2666666666666666</v>
       </c>
@@ -40184,7 +40213,7 @@
       <c r="C36" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="108">
+      <c r="D36" s="87">
         <f>3+(18/60)</f>
         <v>3.3</v>
       </c>
@@ -40211,7 +40240,7 @@
       <c r="C37" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="108">
+      <c r="D37" s="87">
         <f>4+(18/60)</f>
         <v>4.3</v>
       </c>
@@ -40229,10 +40258,7 @@
     <row r="38" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B38" s="39"/>
       <c r="C38" s="40"/>
-      <c r="D38" s="110">
-        <f>STDEV(D31:D37)</f>
-        <v>3.8884903423895949</v>
-      </c>
+      <c r="D38" s="89"/>
       <c r="E38" s="35"/>
       <c r="F38" s="44"/>
       <c r="G38" s="35"/>
@@ -40260,14 +40286,14 @@
       <c r="N39" s="35"/>
     </row>
     <row r="40" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="106" t="s">
+      <c r="B40" s="110" t="s">
         <v>253</v>
       </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
       <c r="J40" s="35"/>
@@ -40304,7 +40330,7 @@
       <c r="C42" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="108">
+      <c r="D42" s="87">
         <f>4+44/60</f>
         <v>4.7333333333333334</v>
       </c>
@@ -40331,7 +40357,7 @@
       <c r="C43" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="108">
+      <c r="D43" s="87">
         <f>5+34/60</f>
         <v>5.5666666666666664</v>
       </c>
@@ -40358,7 +40384,7 @@
       <c r="C44" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="108">
+      <c r="D44" s="87">
         <f>6+14/60</f>
         <v>6.2333333333333334</v>
       </c>
@@ -40385,7 +40411,7 @@
       <c r="C45" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="108">
+      <c r="D45" s="87">
         <f>4+49/60</f>
         <v>4.8166666666666664</v>
       </c>
@@ -40407,7 +40433,7 @@
       <c r="C46" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="108">
+      <c r="D46" s="87">
         <f>9+14/60</f>
         <v>9.2333333333333325</v>
       </c>
@@ -40434,7 +40460,7 @@
       <c r="C47" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="108">
+      <c r="D47" s="87">
         <f>15</f>
         <v>15</v>
       </c>
@@ -40461,7 +40487,7 @@
       <c r="C48" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="108">
+      <c r="D48" s="87">
         <f>7+45/60</f>
         <v>7.75</v>
       </c>
@@ -40483,7 +40509,7 @@
       <c r="C49" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="108">
+      <c r="D49" s="87">
         <f>9+15/60</f>
         <v>9.25</v>
       </c>
@@ -40505,7 +40531,7 @@
       <c r="C50" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="108">
+      <c r="D50" s="87">
         <f>9+19/60</f>
         <v>9.3166666666666664</v>
       </c>
@@ -40527,7 +40553,7 @@
       <c r="C51" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="108">
+      <c r="D51" s="87">
         <f>3+53/60</f>
         <v>3.8833333333333333</v>
       </c>
@@ -40549,7 +40575,7 @@
       <c r="C52" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="108">
+      <c r="D52" s="87">
         <f>6+10/60</f>
         <v>6.166666666666667</v>
       </c>
@@ -40567,7 +40593,10 @@
     <row r="53" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
+      <c r="D53" s="90">
+        <f>STDEV(D42,D43,D44,D45,D46,D48,D49, D50, D51, D52)</f>
+        <v>2.0549255791396583</v>
+      </c>
       <c r="E53" s="35"/>
       <c r="F53" s="44"/>
       <c r="G53" s="35"/>
@@ -40595,14 +40624,14 @@
       <c r="N54" s="35"/>
     </row>
     <row r="55" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="106" t="s">
+      <c r="B55" s="110" t="s">
         <v>254</v>
       </c>
-      <c r="C55" s="106"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="110"/>
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
       <c r="J55" s="35"/>
@@ -40639,7 +40668,7 @@
       <c r="C57" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="108">
+      <c r="D57" s="87">
         <f>12+27/60</f>
         <v>12.45</v>
       </c>
@@ -40668,7 +40697,7 @@
       <c r="C58" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="108">
+      <c r="D58" s="87">
         <f>15</f>
         <v>15</v>
       </c>
@@ -40697,7 +40726,7 @@
       <c r="C59" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="108">
+      <c r="D59" s="87">
         <f>15</f>
         <v>15</v>
       </c>
@@ -40726,7 +40755,7 @@
       <c r="C60" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="108">
+      <c r="D60" s="87">
         <f>15</f>
         <v>15</v>
       </c>
@@ -40750,7 +40779,7 @@
       <c r="C61" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="108">
+      <c r="D61" s="87">
         <f>9+14/10</f>
         <v>10.4</v>
       </c>
@@ -40779,7 +40808,7 @@
       <c r="C62" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="108">
+      <c r="D62" s="87">
         <v>15</v>
       </c>
       <c r="E62" s="50">
@@ -40807,7 +40836,7 @@
       <c r="C63" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="108">
+      <c r="D63" s="87">
         <v>15</v>
       </c>
       <c r="E63" s="50">
@@ -40830,7 +40859,7 @@
       <c r="C64" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="108">
+      <c r="D64" s="87">
         <v>15</v>
       </c>
       <c r="E64" s="57">
@@ -42094,8 +42123,8 @@
   </sheetPr>
   <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -43939,7 +43968,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F20" s="82" t="s">
         <v>20</v>
@@ -44588,10 +44617,10 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C54" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.35">
@@ -44636,7 +44665,7 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B60" s="80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C60" s="84">
         <v>1</v>
@@ -44644,10 +44673,10 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B62" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C62" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.35">
@@ -44668,7 +44697,7 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C65" s="84">
         <v>1</v>
@@ -44676,10 +44705,10 @@
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
@@ -44708,7 +44737,7 @@
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="80" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C71" s="84">
         <v>0</v>
@@ -44716,7 +44745,7 @@
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C72" s="84">
         <v>1</v>
@@ -44724,15 +44753,15 @@
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C74" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C75" s="84">
         <v>2.0408163265306121E-2</v>
@@ -44764,7 +44793,7 @@
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C79" s="84">
         <v>1</v>
@@ -44772,10 +44801,10 @@
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C81" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.35">
@@ -44796,7 +44825,7 @@
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C84" s="84">
         <v>1</v>
@@ -44804,10 +44833,10 @@
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.35">
@@ -44828,7 +44857,7 @@
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="80" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C89" s="84">
         <v>0</v>
@@ -44836,7 +44865,7 @@
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C90" s="84">
         <v>1</v>
@@ -44863,8 +44892,8 @@
   </sheetPr>
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55:J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -44874,29 +44903,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
       <c r="V1" s="62"/>
     </row>
     <row r="2" spans="1:25" ht="26.65" thickTop="1" x14ac:dyDescent="0.35">
@@ -45747,29 +45776,29 @@
       <c r="Y13" s="20"/>
     </row>
     <row r="14" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="62"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="20"/>
@@ -46713,29 +46742,29 @@
       <c r="Y27" s="20"/>
     </row>
     <row r="28" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="87"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="91"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="91"/>
+      <c r="U28" s="91"/>
       <c r="V28" s="62"/>
       <c r="X28" s="19"/>
       <c r="Y28" s="20"/>
@@ -47371,29 +47400,29 @@
       <c r="Y37" s="20"/>
     </row>
     <row r="38" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="87"/>
-      <c r="U38" s="87"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="91"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="91"/>
+      <c r="S38" s="91"/>
+      <c r="T38" s="91"/>
+      <c r="U38" s="91"/>
       <c r="V38" s="62"/>
       <c r="X38" s="19"/>
       <c r="Y38" s="20"/>
@@ -48422,29 +48451,29 @@
       <c r="Y52" s="20"/>
     </row>
     <row r="53" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="87" t="s">
+      <c r="A53" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="87"/>
-      <c r="O53" s="87"/>
-      <c r="P53" s="87"/>
-      <c r="Q53" s="87"/>
-      <c r="R53" s="87"/>
-      <c r="S53" s="87"/>
-      <c r="T53" s="87"/>
-      <c r="U53" s="87"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="91"/>
+      <c r="L53" s="91"/>
+      <c r="M53" s="91"/>
+      <c r="N53" s="91"/>
+      <c r="O53" s="91"/>
+      <c r="P53" s="91"/>
+      <c r="Q53" s="91"/>
+      <c r="R53" s="91"/>
+      <c r="S53" s="91"/>
+      <c r="T53" s="91"/>
+      <c r="U53" s="91"/>
       <c r="V53" s="62"/>
       <c r="X53" s="19"/>
       <c r="Y53" s="20"/>
@@ -49253,8 +49282,8 @@
   </sheetPr>
   <dimension ref="B2:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -49955,27 +49984,27 @@
       <c r="L1" s="8"/>
     </row>
     <row r="2" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="75"/>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
       <c r="I2" s="76"/>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="V2" s="88" t="s">
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="V2" s="92" t="s">
         <v>306</v>
       </c>
-      <c r="W2" s="88"/>
+      <c r="W2" s="92"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B3" s="29"/>
@@ -50344,17 +50373,17 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="27.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="75"/>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="94" t="s">
         <v>301</v>
       </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B20" s="29"/>
